--- a/docs/registroTareas.xlsx
+++ b/docs/registroTareas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2918E1D-C7CC-4712-9D93-EAD22C7D0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F337342-FB55-4267-98BB-8E15039C832A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D7D85143-E9BD-4C63-BA49-F2F5C723EC14}"/>
   </bookViews>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1D773AC7-A361-4B03-8299-1F15C0E9F8F0}</author>
+  </authors>
+  <commentList>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{1D773AC7-A361-4B03-8299-1F15C0E9F8F0}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Al momento en el que el usuario haga click sobre “¿Has olvidado tu contraseña”, la aplicación deberá dirigirlo a otra ventana donde este pueda introducir su correo electrónico asociado a la cuenta. El sistema le mandará un correo con un enlace único que incluya un token seguro y aleatorio, que redirigirá al usuario a una página donde pueda cambiar su contraseña. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="226">
   <si>
     <t>Requisito</t>
   </si>
@@ -153,7 +171,7 @@
     <t>R14</t>
   </si>
   <si>
-    <t>La  ventana de listado tendrá un menú desplegable, una barra de búsqueda, una sección de X, el listado de productos, botones de filtrado de precio y estado y botón de perfil (configuración de cuenta, favoritos, mensajería y cerrar sesión) .</t>
+    <t>La  ventana de listado tendrá un menú desplegable, una barra de búsqueda, una sección de X, el listado de productos, botón de vender, botones de filtrado de precio y estado, y botón de perfil (configuración de cuenta, favoritos, mensajería y cerrar sesión) .</t>
   </si>
   <si>
     <t>Criterio de validación: Verificar que se muestran todos las secciones.</t>
@@ -162,10 +180,10 @@
     <t>R15</t>
   </si>
   <si>
-    <t>La sección de X mostrará las últimas publicaciones de las universidades Ceu San Pablo, UCM y UPM.</t>
-  </si>
-  <si>
-    <t>Verificar que se muestran las publicaciones más recientes de las universidades Ceu San Pablo, UCM y UPM en la sección de X, y que estén actualizadas correctamente.</t>
+    <t>La sección de X mostrará las últimas publicaciones de la universidad Ceu San Pablo.</t>
+  </si>
+  <si>
+    <t>Verificar que se muestran las publicaciones más recientes de las universidad Ceu San Pablo en la sección de X, y que esté actualizado correctamente.</t>
   </si>
   <si>
     <t>R16</t>
@@ -177,49 +195,202 @@
     <t>Verificar que el listado muestra todos los productos almacenados en la base de datos y que los datos reflejados (descripción, precio, universidad, estado) coinciden con la información registrada en la base de datos.</t>
   </si>
   <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>La aplicación web deberá contar con un botón en la parte inferior derecha de la página de perfil mediante el cuál, los usuarios podrán crear nuevas publicaciones.</t>
+  </si>
+  <si>
+    <t>Hacer clic en el botón y confirmar que se abre el formulario para crear una nueva publicación.</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación web le permitirá a los usuarios crear nuevas publicaciones/anuncios de venta con el título, la descripción del producto, el precio, el estado y la universidad (opcional). </t>
+  </si>
+  <si>
+    <t>Confirmar que el formulario para crear una publicación permite ingresar título, descripción, precio, estado y universidad (opcional) y verificar después que los anuncios se crean correctamente.</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema deberá almacenar las nuevas publicaciones en la base de datos. </t>
+  </si>
+  <si>
+    <t>Crear una publicación y confirmar que los datos se reflejan en la base de datos.</t>
+  </si>
+  <si>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>El usuario será capaz de cerrar sesión. Para volver a entrar en la aplicación web deberá volver a iniciar sesión con sus credenciales.</t>
+  </si>
+  <si>
+    <t>El sistema debe redirigir al usuario a la página de bienvenida trás pulsar el botón de cerrar sesión. Se debe comprobar que el usuario debe volver a ingresar sus credenciales para acceder nuevamente a la aplicación.</t>
+  </si>
+  <si>
     <t>R10</t>
   </si>
   <si>
-    <t>Al momento en el que el usuario haga click sobre “¿Has olvidado tu contraseña”, la aplicación deberá dirigirlo a otra ventana donde este pueda introducir su correo electrónico asociado a la cuenta. El sistema le mandará un correo con un enlace que redirigirá al usuario a una página donde pueda cambiar su contraseña.</t>
-  </si>
-  <si>
-    <t>Asegurar que, al hacer clic en “¿Has olvidado tu contraseña?”, se dirija correctamente a la ventana para introducir su correo. Después comprobar que le ha llegado el enlace al correo para cambiar la contraseña.</t>
-  </si>
-  <si>
-    <t>alto</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>Hacer clic en el botón y confirmar que se abre el formulario para crear una nueva publicación.</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación web le permitirá a los usuarios crear nuevas publicaciones/anuncios de venta con la descripción del producto, el precio, y la universidad (opcional). </t>
-  </si>
-  <si>
-    <t>Confirmar que el formulario para crear una publicación permite ingresar descripción, precio y universidad (opcional) y verificar después que los anuncios se crean correctamente.</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema deberá almacenar las nuevas publicaciones en la base de datos. </t>
-  </si>
-  <si>
-    <t>Crear una publicación y confirmar que los datos se reflejan en la base de datos.</t>
+    <t>Al momento en el que el usuario haga click sobre “¿Has olvidado tu contraseña”, la aplicación deberá dirigirlo a otra ventana donde este pueda introducir su correo electrónico asociado a la cuenta. El sistema le mandará un correo con una contraseña nueva.</t>
+  </si>
+  <si>
+    <t>La aplicación deberá dirigirlo a otra ventana donde este pueda introducir su correo electrónico asociado a la cuenta. El sistema le mandará un correo con una contraseña nueva que le permitirá al usuario entrar en su cuenta y desde ahi cambiar la contraseña si asi lo desea.</t>
   </si>
   <si>
     <t>R11</t>
   </si>
   <si>
-    <t>Se deberá realizar un update dentro de la base de datos cada vez que el usuario modifique su contraseña.</t>
-  </si>
-  <si>
-    <t>Cambiar una contraseña y verificar que el inicio de sesión con la nueva contraseña funcione correctamente.</t>
+    <t xml:space="preserve">Dentro del perfil existirá una función que permita al usuario cambiar la contraseña. </t>
+  </si>
+  <si>
+    <t>Al cambiar la contraseña, la contraseña antigua dejará de funcionar para entrar y solo se podrá acceder a la cuenta utilizando la nueva contraseña</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al hacer clic en un producto en venta, se abrirá una nueva pantalla que mostrará el desglose completo del producto (título, descripción, precio, estado y universidad).</t>
+  </si>
+  <si>
+    <t>Seleccionar un producto de la lista y verificar que la nueva pantalla muestre la descripción, precio, título, estado y universidad (si está disponible).</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>El listado permite a los usuarios buscar productos con el nombre del libro, artículo de hogar o nombre de la universidad a través de una barra de búsqueda.</t>
+  </si>
+  <si>
+    <t>Realizar búsquedas utilizando diferentes términos y verificar que los resultados coinciden con los criterios de búsqueda especificados.</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>El listado de productos se podrá mostrar a través de un menú desplegable. El menú deberá permitir a los usuarios filtrar por cinco categorías: libros, artículos de hogar y por nombre de 3 principales universidades (CEU, UCM, UPM).</t>
+  </si>
+  <si>
+    <t>Intentar eliminar un anuncio y confirmar que el anuncio se elimina correctamente.</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La BBDD almacenará los productos con distinción del usuario que los ha puesto en venta y se podrán ver en el perfil del usuario correspondiente </t>
+  </si>
+  <si>
+    <t>Al iniciar sesión se guardará esta con el identificador de usuario respectivo y al publicar un producto se añadirá al formulario de este automáticamente el identificador. Se mostrará su username en perfil también.</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>En la sección de productos en venta en el perfil de usuario, los usuarios podrán borrar anuncios que hayan publicado anteriormente. </t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán marcar productos como favoritos para acceder a ellos fácilmente más tarde desde el icono de perfil. </t>
+  </si>
+  <si>
+    <t>Marcar un producto como favorito y verificar que aparece en la lista de favoritos.</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>Al pulsar el botón "Mensaje" en un producto del listado, debe abrirse la ventana de mensajería asociada al perfil del vendedor que vende el producto.</t>
+  </si>
+  <si>
+    <t>Verificar que el botón "Mensaje" abra un chat con el vendedor del producto correspondiente, en la sección de mensajería en el perfil.</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>La aplicación web contará con una sección de mensajería interna para que los usuarios puedan contactar directamente con otros estudiantes para negociar la compra/venta en persona.</t>
+  </si>
+  <si>
+    <t>Iniciar chats entre diferentes usuarios y verificar que se envíen y reciban en tiempo real los mensajes.</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>La aplicación web deberá permitir iniciar o eliminar nuevos chats.</t>
+  </si>
+  <si>
+    <t>Verificar que se pueda iniciar y eliminar chats correctamente.</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán modificar los anuncios que ya hayan publicado desde su perfil, permitiéndoles cambiar los detalles del producto.</t>
+  </si>
+  <si>
+    <t>Acceder a la sección de productos en venta en el perfil, hacer click en el anuncio que quieren cambiar y modificar los campos de descripción, o precio, y verificar que los cambios se reflejan correctamente en el anuncio.</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>En la sección de productos en venta en el perfil de usuario, los usuarios podrán marcar los productos cómo vendidos cuando una transacción se haya completado en persona entre el usuario y el comprador. El producto ya no será visible en la lista de productos en venta, ni en las búsquedas realizadas por otros usuarios.</t>
+  </si>
+  <si>
+    <t>Marcar un producto como vendido y confirmar que no aparece en la lista de productos en venta ni en las búsquedas.</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>Al marcar un producto como vendido, aparecerá automáticamente en la zona de productos vendidos dentro del perfil. </t>
+  </si>
+  <si>
+    <t>Marcar un producto como vendido y verificar que aparece en la zona de productos vendidos.</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán valorar a los vendedores o compradores después de completar una transacción dando una puntuación de 1 a 5 estrellas </t>
+  </si>
+  <si>
+    <t>Simular una transacción entre dos usuarios, activar la opción de valoración, y verificar que ambas valoraciones se registran correctamente en el sistema.</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>Al hacer clic en el icono de perfil de un usuario en el sistema de mensajería, se abrirá una nueva ventana que mostrará la valoración del usuario con el que está mensajeando y los productos que tiene en venta.  </t>
+  </si>
+  <si>
+    <t>Hacer clic en el icono de perfil del vendedor durante una conversación y verificar que se muestra correctamente la valoración y los productos que vende el usuario.</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>Botones para navegar entre las páginas de login, registro y bienvenida. Botón para volver al listado desde el perfil.</t>
+  </si>
+  <si>
+    <t>Comprobar que puedes navegar entre las ventanas de login, bienvenida y registro, además de volver a la página de listado desde el perfil.</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
   <si>
     <t xml:space="preserve">Requisitos </t>
@@ -261,9 +432,15 @@
     <t>Crear modelo ER para tabla users y ads</t>
   </si>
   <si>
+    <t>Ramiro, Elena</t>
+  </si>
+  <si>
     <t>Cargar el servidor Express</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Página de inicio</t>
   </si>
   <si>
@@ -288,9 +465,6 @@
     <t>Permitir a un usuario iniciar sesión</t>
   </si>
   <si>
-    <t>Ramiro, Elena</t>
-  </si>
-  <si>
     <t>Crear la bd</t>
   </si>
   <si>
@@ -312,6 +486,9 @@
     <t>Tommaso, Ramiro</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Vista de pagina listado completa</t>
   </si>
   <si>
@@ -336,14 +513,233 @@
     <t>Modificar contraseña</t>
   </si>
   <si>
-    <t>La aplicación web deberá contar con un botón en la parte inferior derecha de la página de perfil mediante el cuál, los usuarios podrán crear nuevas publicaciones.</t>
+    <t>correo de prueba for pswd recovery</t>
+  </si>
+  <si>
+    <t>campusswap@outlook.com</t>
+  </si>
+  <si>
+    <t>ProyectoIso2024</t>
+  </si>
+  <si>
+    <t>Recuperación de contraseña</t>
+  </si>
+  <si>
+    <t>Tommaso, Ramiro, David</t>
+  </si>
+  <si>
+    <t>Ventana modificar contraseña</t>
+  </si>
+  <si>
+    <t>Cambio de contraseña en la bd</t>
+  </si>
+  <si>
+    <t>Barra de búsqueda en el listado</t>
+  </si>
+  <si>
+    <t>Elena, Myriam</t>
+  </si>
+  <si>
+    <t>Filtrar por menu en listado</t>
+  </si>
+  <si>
+    <t>Desglose de cada producto</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>User_id para distincion de propietarios del producto</t>
+  </si>
+  <si>
+    <t>Ángel</t>
+  </si>
+  <si>
+    <t>Cerrar sesión y redirigir al login si no esta autentificado</t>
+  </si>
+  <si>
+    <t>Ángel, Elena</t>
+  </si>
+  <si>
+    <t>Borrar productos en perfil de usuario</t>
+  </si>
+  <si>
+    <t>Backend Buzon inicial</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Frontend Buzon</t>
+  </si>
+  <si>
+    <t>Chat en tiempo real con socket io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel, Elena </t>
+  </si>
+  <si>
+    <t>Boton contactar usuario del producto</t>
+  </si>
+  <si>
+    <t>Angel, Myriam</t>
+  </si>
+  <si>
+    <t>Iniciar y eliminar chats</t>
+  </si>
+  <si>
+    <t>baja</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>eliminar mensajes en chat</t>
+  </si>
+  <si>
+    <t>Productos favoritos</t>
+  </si>
+  <si>
+    <t>Elena, Ramiro</t>
+  </si>
+  <si>
+    <t>Modificar anuncios</t>
+  </si>
+  <si>
+    <t>Tommaso</t>
+  </si>
+  <si>
+    <t>Marcar productos como vendidos y quitar de la seccion en venta en el perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mover productos a sección vendido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema valoraciones </t>
+  </si>
+  <si>
+    <t>---&gt; enviado a Raul</t>
+  </si>
+  <si>
+    <t>Ver valoraciones de los demás compradores/vendedores</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elena </t>
+  </si>
+  <si>
+    <t>Control usuarios y correos ya en uso al registrarse</t>
+  </si>
+  <si>
+    <t>Claves no seguras</t>
+  </si>
+  <si>
+    <t>Sistema de media estrellas en perfil</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá filtrar productos en venta según un rango de precios (mínimo y máximo). </t>
+  </si>
+  <si>
+    <t>Aplicar diferentes rangos de precio y confirmar que los productos se filtran correctamente</t>
+  </si>
+  <si>
+    <t>Los usuario podrán ver valoraciones de los demás compradores/vendedores desde el chat iniciado con el otro usuario.</t>
+  </si>
+  <si>
+    <t>Comprobar que en el chat aparezca un botón de ‘Ver perfil’. Al pulsar se verán todas las valoraciones que ha recibido esa persona.</t>
+  </si>
+  <si>
+    <t>Dentro de un chat se debe permitir eliminar mensajes específicos enviados por el usuario.</t>
+  </si>
+  <si>
+    <t>Eliminar mensajes individuales y verificar que desaparezcan del chat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No se permitirá el uso de claves no seguras. Todas las claves deberán contar con una letra mayúscula, una minúscula, un carácter especial, un número y tener al menos 8 caracteres. En caso contrario, no se permitirá continuar con el proceso de registro y aparecerá un mensaje con el error correspondiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intentar registrarse con contraseñas que no cumplan estos requisitos y asegurarse de que se muestre un mensaje de error.</t>
+  </si>
+  <si>
+    <t>Mostrar el nombre del usuario en anuncio de listado y favoritos</t>
+  </si>
+  <si>
+    <t> Se debe mostrar el nombre del usuario en el anuncio de listado y favoritos, para que puedan abrir un chat con el usuario (buscando por username en la barra de búsqueda del chat) en ambos casos.</t>
+  </si>
+  <si>
+    <t>Comprobar que aparece el username en todos los productos de listado y favoritos.</t>
+  </si>
+  <si>
+    <t>Habrá un sistema de valoración de usuarios. Solamente cuando el vendedor haya marcado como vendido su producto, el sistema habilitará la opción de valoración al comprador.</t>
+  </si>
+  <si>
+    <t>Marcar un producto como vendido y verificar que aparezca una lista con los usuarios con los que tienes un chat guardado, seleccionar al usuario que compró el producto y, desde la cuenta del comprador, acceder a la sección de valoraciones. Luego, hacer clic en el botón "Nueva valoración" y confirmar que se muestra la opción para que el comprador valore al vendedor.</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>El sistema deberá calcular la puntuación media de estrellas que haya obtenido cada usuario y se debe mostrar en el perfil del usuario correspondiente.</t>
+  </si>
+  <si>
+    <t>Verifica que el cálculo promedio se actualice automáticamente y se redondee correctamente tras recibir una nueva valoración. También se debe reflejar con precisión en la interfaz de usuario.</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>No se permitirá registrar un usuario con un nombre de usuario o correo electrónico que ya exista en la base de datos. </t>
+  </si>
+  <si>
+    <t>Verificar que el sistema no permita registrar un nuevo usuario cuando se introduce un nombre de usuario repetido y, posteriormente, un correo electrónico repetido. En ambos casos, deben mostrarse mensajes de error específicos en pantalla indicando el problema.</t>
+  </si>
+  <si>
+    <t>Modificar contraseña desde perfil</t>
+  </si>
+  <si>
+    <t>David, Ramiro</t>
+  </si>
+  <si>
+    <t>Realizar con testing</t>
+  </si>
+  <si>
+    <t>Habrá una ventana 'Sobre nosotros' contando un resumen corto del propósito de la app web</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Acceder a la ventana sobre nosotros, mediante un botón en el header de listado. Que se vea una introducción corta sobre la app web.</t>
+  </si>
+  <si>
+    <t>En perfil habrá una sección donde el usuario pueda ver su nombre, apellido, nombre de usuario, y correo. También tendrá tres botones. Uno para cerrar sesión, otro para volver al perfil y uno para modificar su contraseña.</t>
+  </si>
+  <si>
+    <t>Confirmar que todos los datos del usuario se muestran correctamente en la sección y que los tres botones funcionan según lo esperado.</t>
+  </si>
+  <si>
+    <t>meida</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>Ventana sobre nosotros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,13 +763,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +793,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,10 +839,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -485,15 +908,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,6 +964,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Elena Yunxin Cores Smith" id="{A9F90267-45A3-4064-8F94-614B5AEE4FF4}" userId="S::e.cores@usp.ceu.es::17fec171-2dac-4b6d-9f57-e3144bf53679" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -824,23 +1287,31 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B25" dT="2024-10-20T10:36:13.59" personId="{A9F90267-45A3-4064-8F94-614B5AEE4FF4}" id="{1D773AC7-A361-4B03-8299-1F15C0E9F8F0}">
+    <text xml:space="preserve">Al momento en el que el usuario haga click sobre “¿Has olvidado tu contraseña”, la aplicación deberá dirigirlo a otra ventana donde este pueda introducir su correo electrónico asociado a la cuenta. El sistema le mandará un correo con un enlace único que incluya un token seguro y aleatorio, que redirigirá al usuario a una página donde pueda cambiar su contraseña. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB892EA1-2488-4344-B40C-5B69BB9F3AC7}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="13"/>
     <col min="2" max="2" width="59.86328125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="46.73046875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="47.59765625" style="19" customWidth="1"/>
     <col min="4" max="4" width="12.59765625" style="13" customWidth="1"/>
     <col min="5" max="6" width="11.3984375" style="11"/>
     <col min="7" max="7" width="19.265625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="13"/>
+    <col min="8" max="8" width="11.3984375" style="25"/>
     <col min="9" max="16383" width="11.3984375" style="12"/>
     <col min="16384" max="16384" width="10.73046875" style="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -867,7 +1338,7 @@
       <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -893,7 +1364,7 @@
       <c r="G2" s="20">
         <v>45557</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -919,7 +1390,7 @@
       <c r="G3" s="20">
         <v>45557</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -945,7 +1416,7 @@
       <c r="G4" s="20">
         <v>45557</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -971,7 +1442,7 @@
       <c r="G5" s="20">
         <v>45557</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -983,7 +1454,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
@@ -1007,7 +1478,7 @@
       <c r="G7" s="20">
         <v>45565</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1033,7 +1504,7 @@
       <c r="G8" s="20">
         <v>45565</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1059,7 +1530,7 @@
       <c r="G9" s="20">
         <v>45565</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1085,7 +1556,7 @@
       <c r="G10" s="20">
         <v>45565</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1097,7 +1568,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
@@ -1121,6 +1592,9 @@
       <c r="G12" s="20">
         <v>45579</v>
       </c>
+      <c r="H12" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="19" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="21" t="s">
@@ -1142,7 +1616,10 @@
         <v>20</v>
       </c>
       <c r="G13" s="20">
-        <v>45579</v>
+        <v>45580</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="19" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1167,9 +1644,12 @@
       <c r="G14" s="20">
         <v>45579</v>
       </c>
+      <c r="H14" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="19" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -1179,88 +1659,74 @@
         <v>48</v>
       </c>
       <c r="D15" s="17">
-        <v>13</v>
-      </c>
-      <c r="E15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>49</v>
+      <c r="F15" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="G15" s="20">
         <v>45579</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H15" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G16" s="20">
         <v>45579</v>
       </c>
+      <c r="H16" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="17">
         <v>7</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G17" s="20">
         <v>45579</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="H17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="17">
-        <v>7</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="20">
-        <v>45579</v>
-      </c>
-    </row>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:8" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
@@ -1269,419 +1735,1027 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
+      <c r="H19" s="16"/>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="D21" s="17">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="20">
+        <v>45611</v>
+      </c>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="17">
+      <c r="B22" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="17">
+        <v>8</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="20">
+        <v>45611</v>
+      </c>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="17">
         <v>5</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="F23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="20">
+        <v>45611</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="17">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="20">
+        <v>45611</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="17">
+        <v>8</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="20">
+        <v>45611</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="20">
+        <v>45611</v>
+      </c>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="17">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="20">
+        <v>45611</v>
+      </c>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="17">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="20">
+        <v>45611</v>
+      </c>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="17">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="17">
+        <v>8</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="17">
+        <v>3</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="20">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="17">
+        <v>21</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A37" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="17">
+        <v>8</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="17">
+        <v>5</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="17">
+        <v>13</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="17">
+        <v>8</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A41" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="17">
+        <v>5</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A43" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="17">
+        <v>5</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" s="11" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="17">
+        <v>4</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A45" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="17">
+        <v>5</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A47" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="17">
+        <v>3</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" s="11" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A48" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="17">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A49" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="17">
+        <v>3</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="20">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A50" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="20">
+        <v>45635</v>
+      </c>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="17"/>
-    </row>
-    <row r="55" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="17"/>
-    </row>
-    <row r="71" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="17"/>
-    </row>
-    <row r="72" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="17"/>
-    </row>
-    <row r="73" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="17"/>
-    </row>
-    <row r="75" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="17"/>
-    </row>
-    <row r="78" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="17"/>
-    </row>
-    <row r="79" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="17"/>
-    </row>
-    <row r="80" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="17"/>
-    </row>
-    <row r="81" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="17"/>
-    </row>
-    <row r="82" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="17"/>
-    </row>
-    <row r="83" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="17"/>
-    </row>
-    <row r="84" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="17"/>
-    </row>
-    <row r="85" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="17"/>
-    </row>
-    <row r="86" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="17"/>
-    </row>
-    <row r="87" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="17"/>
-    </row>
-    <row r="88" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="17"/>
-    </row>
-    <row r="89" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="17"/>
-    </row>
-    <row r="90" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="17"/>
-    </row>
-    <row r="91" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="17"/>
-    </row>
-    <row r="92" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="17"/>
-    </row>
-    <row r="93" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="17"/>
-    </row>
-    <row r="94" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="17"/>
-    </row>
-    <row r="95" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="17"/>
-    </row>
-    <row r="96" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="17"/>
-    </row>
-    <row r="97" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="17"/>
-    </row>
-    <row r="98" spans="2:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="17"/>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="17"/>
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="17"/>
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="17"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="17"/>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="17"/>
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="17"/>
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="17"/>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="2:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="17"/>
+      <c r="H106" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1689,49 +2763,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DDC7A2-E1F5-4094-8EA8-F139D3E0BE4C}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DDC7A2-E1F5-4094-8EA8-F139D3E0BE4C}">
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="4"/>
     <col min="6" max="7" width="10.73046875" style="3"/>
     <col min="9" max="9" width="12.265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1739,10 +2815,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -1765,10 +2841,10 @@
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -1791,10 +2867,10 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -1817,10 +2893,10 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -1843,10 +2919,10 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -1858,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H6" s="5">
         <v>45565</v>
@@ -1872,10 +2948,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -1887,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H7" s="5">
         <v>45565</v>
@@ -1898,10 +2974,10 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -1913,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H8" s="5">
         <v>45565</v>
@@ -1927,10 +3003,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -1942,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H9" s="5">
         <v>45565</v>
@@ -1956,22 +3032,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H10" s="5">
         <v>45572</v>
@@ -1982,10 +3058,10 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
@@ -2008,10 +3084,10 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
@@ -2020,7 +3096,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -2034,10 +3110,10 @@
     </row>
     <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
@@ -2046,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
@@ -2060,10 +3136,10 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
@@ -2075,7 +3151,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H14" s="5">
         <v>45572</v>
@@ -2085,33 +3161,33 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="25">
+      <c r="A15" s="37">
         <v>45576</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3">
         <v>13</v>
@@ -2122,22 +3198,22 @@
       <c r="H16" s="5">
         <v>45579</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -2146,21 +3222,24 @@
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="5">
         <v>45579</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
@@ -2172,24 +3251,27 @@
         <v>2</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="5">
         <v>45579</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -2203,16 +3285,19 @@
       <c r="H19" s="5">
         <v>45579</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>20</v>
@@ -2229,22 +3314,25 @@
       <c r="H20" s="5">
         <v>45579</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E21" s="23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3">
         <v>7</v>
@@ -2252,22 +3340,25 @@
       <c r="H21" s="5">
         <v>45579</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F22" s="3">
         <v>7</v>
@@ -2275,16 +3366,19 @@
       <c r="H22" s="5">
         <v>45579</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
@@ -2296,14 +3390,840 @@
         <v>5</v>
       </c>
       <c r="H23" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="24"/>
+      <c r="I23" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="37">
+        <v>45568</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="K24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="3">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3">
+        <v>11</v>
+      </c>
+      <c r="H25" s="5">
+        <v>45611</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>45611</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5">
+        <v>45611</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8</v>
+      </c>
+      <c r="H28" s="31">
+        <v>45611</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>45611</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3">
+        <v>6</v>
+      </c>
+      <c r="H30" s="5">
+        <v>45611</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6</v>
+      </c>
+      <c r="G31" s="3">
+        <v>8</v>
+      </c>
+      <c r="H31" s="5">
+        <v>45611</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+      <c r="H32" s="5">
+        <v>45611</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>45611</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="37">
+        <v>45618</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="3">
+        <v>8</v>
+      </c>
+      <c r="G35" s="6">
+        <v>6</v>
+      </c>
+      <c r="H35" s="5">
+        <v>45635</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="5">
+        <v>45635</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="3">
+        <v>13</v>
+      </c>
+      <c r="G37" s="3">
+        <v>28</v>
+      </c>
+      <c r="H37" s="5">
+        <v>45635</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>5</v>
+      </c>
+      <c r="H38" s="5">
+        <v>45635</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5">
+        <v>45635</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5</v>
+      </c>
+      <c r="G40" s="3">
+        <v>6</v>
+      </c>
+      <c r="H40" s="5">
+        <v>45623</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="3">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3">
+        <v>13</v>
+      </c>
+      <c r="H41" s="5">
+        <v>45632</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>8</v>
+      </c>
+      <c r="H42" s="5">
+        <v>45635</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6</v>
+      </c>
+      <c r="H43" s="5">
+        <v>45635</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="3">
+        <v>13</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10</v>
+      </c>
+      <c r="H44" s="5">
+        <v>45635</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="34">
+        <v>5</v>
+      </c>
+      <c r="G45" s="34">
+        <v>8</v>
+      </c>
+      <c r="H45" s="36">
+        <v>45635</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="34">
+        <v>5</v>
+      </c>
+      <c r="G46" s="34"/>
+      <c r="H46" s="36">
+        <v>45635</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="34">
+        <v>2</v>
+      </c>
+      <c r="G48" s="34">
+        <v>3</v>
+      </c>
+      <c r="H48" s="36">
+        <v>45635</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="34">
+        <v>2</v>
+      </c>
+      <c r="G49" s="34">
+        <v>2</v>
+      </c>
+      <c r="H49" s="36">
+        <v>45635</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="34">
+        <v>3</v>
+      </c>
+      <c r="G50" s="34">
+        <v>3</v>
+      </c>
+      <c r="H50" s="36">
+        <v>45635</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="34">
+        <v>3</v>
+      </c>
+      <c r="G51" s="34">
+        <v>4</v>
+      </c>
+      <c r="H51" s="36">
+        <v>45635</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="34">
+        <v>1</v>
+      </c>
+      <c r="G52" s="34">
+        <v>3</v>
+      </c>
+      <c r="H52" s="36">
+        <v>45635</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="H53" s="36">
+        <v>45635</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A34:I34"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K23" r:id="rId1" xr:uid="{583D3747-88EE-4BA6-AE6E-0C21EB8503FA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>